--- a/04-arquivos-excel/aula-comentarios.xlsx
+++ b/04-arquivos-excel/aula-comentarios.xlsx
@@ -1,28 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Cursos online\Curso_Excel\04 Mais tópicos de edição e formatação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\wokspaces\start\ExcelAvançado\04-arquivos-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D8DC74-973E-4CC1-91FC-DCD50FD9080C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cálculo IMC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CD40829E-E9C8-47F7-B8D0-E00FF912CE66}</author>
+  </authors>
+  <commentList>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{CD40829E-E9C8-47F7-B8D0-E00FF912CE66}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Academia Saúde:
+O IMC de uma criança é diferente do IMC de um adulto.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
@@ -86,8 +117,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +185,12 @@
       <color theme="4" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -269,7 +306,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Ênfase5" xfId="1" builtinId="45"/>
+    <cellStyle name="Accent5" xfId="1" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -283,6 +320,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Ferreira, Pollyana Oliveira Martins" id="{DBD1A96B-D7B8-4638-AE8E-6010C2B79736}" userId="S::pollyana.ferreira@capgemini.com::57961a26-5b16-4842-871b-f6e99c68f114" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -580,24 +623,35 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B11" dT="2023-04-26T19:50:59.61" personId="{DBD1A96B-D7B8-4638-AE8E-6010C2B79736}" id="{CD40829E-E9C8-47F7-B8D0-E00FF912CE66}">
+    <text>Academia Saúde:
+O IMC de uma criança é diferente do IMC de um adulto.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="38.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" style="2" customWidth="1"/>
-    <col min="5" max="9" width="9.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="38.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.54296875" style="2" customWidth="1"/>
+    <col min="5" max="9" width="9.1796875" style="2" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2" hidden="1"/>
+    <col min="11" max="16384" width="9.1796875" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" ht="23" x14ac:dyDescent="0.65">
       <c r="A2" s="1"/>
       <c r="B2" s="10" t="s">
         <v>0</v>
@@ -605,48 +659,48 @@
       <c r="C2" s="10"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="4">
-        <v>64.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="4">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="5">
         <f>C4/C6^2</f>
-        <v>22.513217324323382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26.037493991347535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="5.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>3</v>
       </c>
@@ -654,7 +708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>4</v>
       </c>
@@ -662,7 +716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
@@ -670,7 +724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -678,7 +732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
@@ -686,7 +740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
@@ -694,7 +748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
@@ -702,45 +756,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:3" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:3" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:3" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:3" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:3" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:3" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:3" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:3" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:3" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:3" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:3" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:3" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="33" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="34" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="35" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="36" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="37" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="38" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="39" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="40" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="41" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="42" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="43" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="44" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="45" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="46" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="47" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="48" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="49" x14ac:dyDescent="0.2"/>
-    <row r="50" x14ac:dyDescent="0.2"/>
-    <row r="51" x14ac:dyDescent="0.2"/>
-    <row r="52" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3"/>
+    <row r="49" x14ac:dyDescent="0.3"/>
+    <row r="50" x14ac:dyDescent="0.3"/>
+    <row r="51" x14ac:dyDescent="0.3"/>
+    <row r="52" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B2:C2"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Peso" prompt="Informe o peso em quilogramas" sqref="C4" xr:uid="{28444715-7B73-461D-BB80-8465F5CE237C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Altura" prompt="Favor digitar a altura em metros" sqref="C6" xr:uid="{149D7DC4-F49D-4DA5-89D1-1D4CF403035B}"/>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>